--- a/Code/Results/Cases/Case_8_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003369825475853</v>
+        <v>1.001899824015617</v>
       </c>
       <c r="D2">
-        <v>1.026872907088439</v>
+        <v>1.025385408597584</v>
       </c>
       <c r="E2">
-        <v>1.009352637597293</v>
+        <v>1.008094504488051</v>
       </c>
       <c r="F2">
-        <v>1.030728404958684</v>
+        <v>1.029584174070811</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050155801548331</v>
+        <v>1.049400559864647</v>
       </c>
       <c r="J2">
-        <v>1.025450210691127</v>
+        <v>1.024023859777947</v>
       </c>
       <c r="K2">
-        <v>1.037970136350402</v>
+        <v>1.036502059657709</v>
       </c>
       <c r="L2">
-        <v>1.020683195094834</v>
+        <v>1.01944221019772</v>
       </c>
       <c r="M2">
-        <v>1.041775620690796</v>
+        <v>1.040646183853891</v>
       </c>
       <c r="N2">
-        <v>1.026906467611093</v>
+        <v>1.023067218341975</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041634991232448</v>
+        <v>1.040741118554628</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037918444168765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036889168495421</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021793337503267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007281665730744</v>
+        <v>1.005453809015436</v>
       </c>
       <c r="D3">
-        <v>1.029491316769529</v>
+        <v>1.027686651143568</v>
       </c>
       <c r="E3">
-        <v>1.012436465632768</v>
+        <v>1.010866160618884</v>
       </c>
       <c r="F3">
-        <v>1.033477651370106</v>
+        <v>1.032083055912721</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050992834461093</v>
+        <v>1.050075605327194</v>
       </c>
       <c r="J3">
-        <v>1.027575774484163</v>
+        <v>1.025796893847136</v>
       </c>
       <c r="K3">
-        <v>1.039760259645788</v>
+        <v>1.037977120196827</v>
       </c>
       <c r="L3">
-        <v>1.022912654594527</v>
+        <v>1.021361869456157</v>
       </c>
       <c r="M3">
-        <v>1.043699374919315</v>
+        <v>1.042321247477735</v>
       </c>
       <c r="N3">
-        <v>1.029035049948519</v>
+        <v>1.024061344898928</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043157509729474</v>
+        <v>1.042066817443762</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039181552903627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037929221697103</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022086099584829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00976740830837</v>
+        <v>1.00771441395816</v>
       </c>
       <c r="D4">
-        <v>1.031156881940285</v>
+        <v>1.029151966125378</v>
       </c>
       <c r="E4">
-        <v>1.014401990721486</v>
+        <v>1.012634985502538</v>
       </c>
       <c r="F4">
-        <v>1.035230618421382</v>
+        <v>1.033678167311365</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051510856572649</v>
+        <v>1.050491152381979</v>
       </c>
       <c r="J4">
-        <v>1.028924520360287</v>
+        <v>1.026922821837123</v>
       </c>
       <c r="K4">
-        <v>1.040893269148197</v>
+        <v>1.038910837058023</v>
       </c>
       <c r="L4">
-        <v>1.024329649150283</v>
+        <v>1.022583272116443</v>
       </c>
       <c r="M4">
-        <v>1.044921651420771</v>
+        <v>1.043386432384391</v>
       </c>
       <c r="N4">
-        <v>1.03038571119849</v>
+        <v>1.02469263992803</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044124855437697</v>
+        <v>1.042909837561854</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039983584855713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03859041976099</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02226894884448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010804819084003</v>
+        <v>1.008658243449374</v>
       </c>
       <c r="D5">
-        <v>1.031853978992002</v>
+        <v>1.029765777462108</v>
       </c>
       <c r="E5">
-        <v>1.015224079180785</v>
+        <v>1.013375237612089</v>
       </c>
       <c r="F5">
-        <v>1.035964118898414</v>
+        <v>1.034346041672908</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051724891300344</v>
+        <v>1.05066251953354</v>
       </c>
       <c r="J5">
-        <v>1.029488203678099</v>
+        <v>1.027393663519799</v>
       </c>
       <c r="K5">
-        <v>1.041367218734839</v>
+        <v>1.039301816153155</v>
       </c>
       <c r="L5">
-        <v>1.024922088414161</v>
+        <v>1.023094250593379</v>
       </c>
       <c r="M5">
-        <v>1.045432813405865</v>
+        <v>1.043832220900505</v>
       </c>
       <c r="N5">
-        <v>1.030950195011269</v>
+        <v>1.024956634560885</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044529403743407</v>
+        <v>1.043262648023163</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040325874704866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038874760713147</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022345340458414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01098199631627</v>
+        <v>1.008819306454936</v>
       </c>
       <c r="D6">
-        <v>1.031975018826578</v>
+        <v>1.029872600149295</v>
       </c>
       <c r="E6">
-        <v>1.015365043934378</v>
+        <v>1.013502093581921</v>
       </c>
       <c r="F6">
-        <v>1.036090100017899</v>
+        <v>1.034460796501864</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051762733917532</v>
+        <v>1.05069307676578</v>
       </c>
       <c r="J6">
-        <v>1.029586003260936</v>
+        <v>1.02747547058055</v>
       </c>
       <c r="K6">
-        <v>1.041450788427298</v>
+        <v>1.039371219557847</v>
       </c>
       <c r="L6">
-        <v>1.025024512998934</v>
+        <v>1.023182628909501</v>
       </c>
       <c r="M6">
-        <v>1.045521474408914</v>
+        <v>1.043909696720078</v>
       </c>
       <c r="N6">
-        <v>1.031048133480731</v>
+        <v>1.025002502628569</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044599572590011</v>
+        <v>1.043323964703336</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04039370569342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038933452541762</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.0223593857332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009790976050456</v>
+        <v>1.007756229485193</v>
       </c>
       <c r="D7">
-        <v>1.031177946937406</v>
+        <v>1.029184860422846</v>
       </c>
       <c r="E7">
-        <v>1.014421963230142</v>
+        <v>1.012671674777959</v>
       </c>
       <c r="F7">
-        <v>1.035248936688217</v>
+        <v>1.033706812596504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051519701460492</v>
+        <v>1.05050600924585</v>
       </c>
       <c r="J7">
-        <v>1.028941500564613</v>
+        <v>1.026957570877896</v>
       </c>
       <c r="K7">
-        <v>1.040911218297651</v>
+        <v>1.038940473956944</v>
       </c>
       <c r="L7">
-        <v>1.02434644491376</v>
+        <v>1.022616581237255</v>
       </c>
       <c r="M7">
-        <v>1.044936901644701</v>
+        <v>1.043411888341308</v>
       </c>
       <c r="N7">
-        <v>1.030402715516654</v>
+        <v>1.02476458885564</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044136924907042</v>
+        <v>1.042929984177641</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04001638159258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038633498626813</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022277848106838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004713456563854</v>
+        <v>1.003184310472657</v>
       </c>
       <c r="D8">
-        <v>1.027778229769679</v>
+        <v>1.026224387531042</v>
       </c>
       <c r="E8">
-        <v>1.010412305781899</v>
+        <v>1.009105324015119</v>
       </c>
       <c r="F8">
-        <v>1.031673432415609</v>
+        <v>1.030479997766649</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050450910158899</v>
+        <v>1.049661707547059</v>
       </c>
       <c r="J8">
-        <v>1.026185809407051</v>
+        <v>1.024700544173152</v>
       </c>
       <c r="K8">
-        <v>1.038594627759348</v>
+        <v>1.037060473769001</v>
       </c>
       <c r="L8">
-        <v>1.021453059011124</v>
+        <v>1.020163354437577</v>
       </c>
       <c r="M8">
-        <v>1.042440800554027</v>
+        <v>1.041262338832231</v>
       </c>
       <c r="N8">
-        <v>1.027643110961566</v>
+        <v>1.023605709957669</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042161435476584</v>
+        <v>1.041228763580207</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038382931402233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03730921739443</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021911627271891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9953868674847393</v>
+        <v>0.9947377923552352</v>
       </c>
       <c r="D9">
-        <v>1.021541366872085</v>
+        <v>1.020759868675591</v>
       </c>
       <c r="E9">
-        <v>1.003093778974063</v>
+        <v>1.002553042495655</v>
       </c>
       <c r="F9">
-        <v>1.025152983704652</v>
+        <v>1.024571325693749</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048374062106433</v>
+        <v>1.047978067726737</v>
       </c>
       <c r="J9">
-        <v>1.021103585693047</v>
+        <v>1.020477751077005</v>
       </c>
       <c r="K9">
-        <v>1.034294357599526</v>
+        <v>1.03352487705309</v>
       </c>
       <c r="L9">
-        <v>1.016136860406258</v>
+        <v>1.015604833726778</v>
       </c>
       <c r="M9">
-        <v>1.037850739478495</v>
+        <v>1.037277943621712</v>
       </c>
       <c r="N9">
-        <v>1.022553669906949</v>
+        <v>1.021257334252295</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038528709098836</v>
+        <v>1.038075378195111</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035339165687631</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034805850962416</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021195506766383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9889572376857186</v>
+        <v>0.9890214583455667</v>
       </c>
       <c r="D10">
-        <v>1.017276851758865</v>
+        <v>1.017096200745031</v>
       </c>
       <c r="E10">
-        <v>0.9980915863862758</v>
+        <v>0.9981733412055614</v>
       </c>
       <c r="F10">
-        <v>1.02077358131031</v>
+        <v>1.020674115403765</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046889840040994</v>
+        <v>1.046798440633995</v>
       </c>
       <c r="J10">
-        <v>1.017615938346274</v>
+        <v>1.017677529740606</v>
       </c>
       <c r="K10">
-        <v>1.031341019937919</v>
+        <v>1.031163489619665</v>
       </c>
       <c r="L10">
-        <v>1.01249538353338</v>
+        <v>1.012575655050179</v>
       </c>
       <c r="M10">
-        <v>1.034777625656359</v>
+        <v>1.034679862641153</v>
       </c>
       <c r="N10">
-        <v>1.019061069700905</v>
+        <v>1.019921724825031</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036148118970468</v>
+        <v>1.03607075047495</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033267810726859</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033154732138756</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020717663846406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9865296598785341</v>
+        <v>0.986965359492548</v>
       </c>
       <c r="D11">
-        <v>1.015826862110121</v>
+        <v>1.015934926983231</v>
       </c>
       <c r="E11">
-        <v>0.9962722431899356</v>
+        <v>0.9966790245262903</v>
       </c>
       <c r="F11">
-        <v>1.019753704846007</v>
+        <v>1.019892570425589</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046436929712366</v>
+        <v>1.046491570332354</v>
       </c>
       <c r="J11">
-        <v>1.01647375984611</v>
+        <v>1.016890631411505</v>
       </c>
       <c r="K11">
-        <v>1.030456354223767</v>
+        <v>1.030562463166939</v>
       </c>
       <c r="L11">
-        <v>1.011264803618602</v>
+        <v>1.011663842513999</v>
       </c>
       <c r="M11">
-        <v>1.034312468445059</v>
+        <v>1.034448845791761</v>
       </c>
       <c r="N11">
-        <v>1.017917269176262</v>
+        <v>1.019927892610339</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036217348099925</v>
+        <v>1.036325220962678</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032675251877145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032765937276487</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02064235420703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857515043028087</v>
+        <v>0.9863001177875658</v>
       </c>
       <c r="D12">
-        <v>1.015417634955039</v>
+        <v>1.015611643819249</v>
       </c>
       <c r="E12">
-        <v>0.9957145791545194</v>
+        <v>0.996217470036047</v>
       </c>
       <c r="F12">
-        <v>1.019682124874588</v>
+        <v>1.019892854858335</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046332416609811</v>
+        <v>1.046430490832875</v>
       </c>
       <c r="J12">
-        <v>1.016171371769728</v>
+        <v>1.016695815124647</v>
       </c>
       <c r="K12">
-        <v>1.030255300658441</v>
+        <v>1.030445739113565</v>
       </c>
       <c r="L12">
-        <v>1.010924344191115</v>
+        <v>1.011417497921356</v>
       </c>
       <c r="M12">
-        <v>1.034441717452602</v>
+        <v>1.034648611477172</v>
       </c>
       <c r="N12">
-        <v>1.017614451674127</v>
+        <v>1.020013001614391</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036646695357286</v>
+        <v>1.036810290438587</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03253309967242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032683410873296</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020645271525381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9862073984901857</v>
+        <v>0.9866603316829126</v>
       </c>
       <c r="D13">
-        <v>1.015800978098509</v>
+        <v>1.015919478314076</v>
       </c>
       <c r="E13">
-        <v>0.996103030199153</v>
+        <v>0.9965176155781181</v>
       </c>
       <c r="F13">
-        <v>1.020360929811985</v>
+        <v>1.020510595117636</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046504332013013</v>
+        <v>1.04656423914319</v>
       </c>
       <c r="J13">
-        <v>1.016512374785311</v>
+        <v>1.016945449992078</v>
       </c>
       <c r="K13">
-        <v>1.030588551387321</v>
+        <v>1.030704880026337</v>
       </c>
       <c r="L13">
-        <v>1.011260986483554</v>
+        <v>1.011667578769353</v>
       </c>
       <c r="M13">
-        <v>1.035065412735869</v>
+        <v>1.03521236724355</v>
       </c>
       <c r="N13">
-        <v>1.017955938953105</v>
+        <v>1.020110095846755</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037417002838071</v>
+        <v>1.037533173286385</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032766219841509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032863886525865</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020714790093112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9870847208407458</v>
+        <v>0.9873808456133023</v>
       </c>
       <c r="D14">
-        <v>1.016427810918443</v>
+        <v>1.016423836134322</v>
       </c>
       <c r="E14">
-        <v>0.9968027129942583</v>
+        <v>0.9970767521106665</v>
       </c>
       <c r="F14">
-        <v>1.021174276497371</v>
+        <v>1.021223983738531</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046749283936964</v>
+        <v>1.046747274161782</v>
       </c>
       <c r="J14">
-        <v>1.017041276628968</v>
+        <v>1.01732460447476</v>
       </c>
       <c r="K14">
-        <v>1.031063004621108</v>
+        <v>1.031059101772543</v>
       </c>
       <c r="L14">
-        <v>1.011802226793974</v>
+        <v>1.012071049511866</v>
       </c>
       <c r="M14">
-        <v>1.035724087707679</v>
+        <v>1.035772906236244</v>
       </c>
       <c r="N14">
-        <v>1.018485591898046</v>
+        <v>1.020186444510149</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038111229751031</v>
+        <v>1.038149816541905</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033103104643441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03311589643817</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020795006728699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9875733427093276</v>
+        <v>0.9877874333493264</v>
       </c>
       <c r="D15">
-        <v>1.016762091441499</v>
+        <v>1.016694086951438</v>
       </c>
       <c r="E15">
-        <v>0.9971854473683424</v>
+        <v>0.9973868506311935</v>
       </c>
       <c r="F15">
-        <v>1.021552797215086</v>
+        <v>1.021550096108212</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046873744858293</v>
+        <v>1.046839356087043</v>
       </c>
       <c r="J15">
-        <v>1.017318101444194</v>
+        <v>1.017523021468282</v>
       </c>
       <c r="K15">
-        <v>1.031304462680354</v>
+        <v>1.031237679581568</v>
       </c>
       <c r="L15">
-        <v>1.01208841392961</v>
+        <v>1.01228601323384</v>
       </c>
       <c r="M15">
-        <v>1.036009656193898</v>
+        <v>1.036007003007603</v>
       </c>
       <c r="N15">
-        <v>1.018762809836262</v>
+        <v>1.020217042553068</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038374521524021</v>
+        <v>1.038372424466802</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033279711872941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033248613644797</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020832783423145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9902152743861456</v>
+        <v>0.9900205060957307</v>
       </c>
       <c r="D16">
-        <v>1.018507158019564</v>
+        <v>1.018117058264357</v>
       </c>
       <c r="E16">
-        <v>0.9992281426139873</v>
+        <v>0.999071291165475</v>
       </c>
       <c r="F16">
-        <v>1.023315980022002</v>
+        <v>1.023049697600108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047493482187896</v>
+        <v>1.047296096483008</v>
       </c>
       <c r="J16">
-        <v>1.018744510262239</v>
+        <v>1.018557664698315</v>
       </c>
       <c r="K16">
-        <v>1.032514390207444</v>
+        <v>1.032130990414033</v>
       </c>
       <c r="L16">
-        <v>1.013574628413291</v>
+        <v>1.013420606889748</v>
       </c>
       <c r="M16">
-        <v>1.037241162326441</v>
+        <v>1.036979397271341</v>
       </c>
       <c r="N16">
-        <v>1.02019124431844</v>
+        <v>1.020390041244388</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039309142400821</v>
+        <v>1.039102239481897</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034138350990991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033883691554202</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021009720095032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9917842041153537</v>
+        <v>0.9913746434625993</v>
       </c>
       <c r="D17">
-        <v>1.019518554860979</v>
+        <v>1.018956092240785</v>
       </c>
       <c r="E17">
-        <v>1.00043189216375</v>
+        <v>1.000088095950497</v>
       </c>
       <c r="F17">
-        <v>1.02423816422402</v>
+        <v>1.023831321503448</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047837224928154</v>
+        <v>1.047552518309518</v>
       </c>
       <c r="J17">
-        <v>1.019561805923564</v>
+        <v>1.019168364754983</v>
       </c>
       <c r="K17">
-        <v>1.033192794592074</v>
+        <v>1.032639720145833</v>
       </c>
       <c r="L17">
-        <v>1.014432352981385</v>
+        <v>1.014094580701983</v>
       </c>
       <c r="M17">
-        <v>1.037834150703664</v>
+        <v>1.03743401705698</v>
       </c>
       <c r="N17">
-        <v>1.021009700633349</v>
+        <v>1.020543300276353</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039648685243525</v>
+        <v>1.039332382192827</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034620602435374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034246224406079</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021104392002061</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9925624964783581</v>
+        <v>0.9920645333358888</v>
       </c>
       <c r="D18">
-        <v>1.019968329166581</v>
+        <v>1.019333509622443</v>
       </c>
       <c r="E18">
-        <v>1.001008657383648</v>
+        <v>1.000589361689982</v>
       </c>
       <c r="F18">
-        <v>1.024470413215204</v>
+        <v>1.024004301353781</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047965713861122</v>
+        <v>1.047644312192694</v>
       </c>
       <c r="J18">
-        <v>1.019909458552297</v>
+        <v>1.019430721865447</v>
       </c>
       <c r="K18">
-        <v>1.033451060757649</v>
+        <v>1.032826662583427</v>
       </c>
       <c r="L18">
-        <v>1.014810002771562</v>
+        <v>1.01439792973235</v>
       </c>
       <c r="M18">
-        <v>1.03787971327938</v>
+        <v>1.037421165480422</v>
       </c>
       <c r="N18">
-        <v>1.021357846968692</v>
+        <v>1.020607521815307</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039446735331146</v>
+        <v>1.03908418050501</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034791544126846</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034365598572231</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021125334545517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9926195371854581</v>
+        <v>0.9921356060901365</v>
       </c>
       <c r="D19">
-        <v>1.019907272893997</v>
+        <v>1.019283963047643</v>
       </c>
       <c r="E19">
-        <v>1.001013313799062</v>
+        <v>1.000608625503726</v>
       </c>
       <c r="F19">
-        <v>1.024067013787347</v>
+        <v>1.023609201363081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047900773791071</v>
+        <v>1.047585178458506</v>
       </c>
       <c r="J19">
-        <v>1.01982802193281</v>
+        <v>1.01936266262068</v>
       </c>
       <c r="K19">
-        <v>1.033328256190936</v>
+        <v>1.032715125560149</v>
       </c>
       <c r="L19">
-        <v>1.014750129371335</v>
+        <v>1.014352374472474</v>
       </c>
       <c r="M19">
-        <v>1.037420471996325</v>
+        <v>1.036970056740736</v>
       </c>
       <c r="N19">
-        <v>1.021276294699864</v>
+        <v>1.02054601740534</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038757642907097</v>
+        <v>1.038401401373098</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034711125447293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034293773370846</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021077614732036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9906490036437607</v>
+        <v>0.9904631043031099</v>
       </c>
       <c r="D20">
-        <v>1.018410813923876</v>
+        <v>1.018031289370513</v>
       </c>
       <c r="E20">
-        <v>0.9994092478890736</v>
+        <v>0.9992700373997423</v>
       </c>
       <c r="F20">
-        <v>1.021931044939227</v>
+        <v>1.021669147859009</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047294690604169</v>
+        <v>1.047102598336663</v>
       </c>
       <c r="J20">
-        <v>1.018545211114277</v>
+        <v>1.018366672745463</v>
       </c>
       <c r="K20">
-        <v>1.032137476368026</v>
+        <v>1.031764320916384</v>
       </c>
       <c r="L20">
-        <v>1.013462492920375</v>
+        <v>1.013325734475346</v>
       </c>
       <c r="M20">
-        <v>1.035598921929052</v>
+        <v>1.035341380387186</v>
       </c>
       <c r="N20">
-        <v>1.019991662142828</v>
+        <v>1.020111462974437</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03678751150883</v>
+        <v>1.036583693714116</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033873127031346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033625839015113</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02083894209642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.985734389865828</v>
+        <v>0.9863878002900329</v>
       </c>
       <c r="D21">
-        <v>1.015123773459517</v>
+        <v>1.015400120191626</v>
       </c>
       <c r="E21">
-        <v>0.9955866498594661</v>
+        <v>0.9961932571693791</v>
       </c>
       <c r="F21">
-        <v>1.018474104337999</v>
+        <v>1.018751098309013</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046111207184765</v>
+        <v>1.046250923524865</v>
       </c>
       <c r="J21">
-        <v>1.015840900399707</v>
+        <v>1.016465876308928</v>
       </c>
       <c r="K21">
-        <v>1.029824176475491</v>
+        <v>1.030095490563214</v>
       </c>
       <c r="L21">
-        <v>1.010652119696849</v>
+        <v>1.011247110148757</v>
       </c>
       <c r="M21">
-        <v>1.033113732761711</v>
+        <v>1.033385725354088</v>
       </c>
       <c r="N21">
-        <v>1.017283510996854</v>
+        <v>1.019861688447426</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034779665734328</v>
+        <v>1.034994931328141</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032240771317835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03244947632754</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020511248051405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9825975515325891</v>
+        <v>0.9837667610869862</v>
       </c>
       <c r="D22">
-        <v>1.013035077415902</v>
+        <v>1.01371684438789</v>
       </c>
       <c r="E22">
-        <v>0.9931571874614586</v>
+        <v>0.9942222532099627</v>
       </c>
       <c r="F22">
-        <v>1.016314840346406</v>
+        <v>1.01692478605482</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045346749953863</v>
+        <v>1.045691205061456</v>
       </c>
       <c r="J22">
-        <v>1.014121024427272</v>
+        <v>1.015236360166325</v>
       </c>
       <c r="K22">
-        <v>1.028352655397742</v>
+        <v>1.029021378980386</v>
       </c>
       <c r="L22">
-        <v>1.008865431625472</v>
+        <v>1.00990904393891</v>
       </c>
       <c r="M22">
-        <v>1.031569880487787</v>
+        <v>1.03216825403561</v>
       </c>
       <c r="N22">
-        <v>1.015561192603267</v>
+        <v>1.019647868378171</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033557799313875</v>
+        <v>1.034031376317186</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031186783871179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031675179373171</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02029809191542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9842578925607143</v>
+        <v>0.9851257305166147</v>
       </c>
       <c r="D23">
-        <v>1.014136001943835</v>
+        <v>1.014583815021644</v>
       </c>
       <c r="E23">
-        <v>0.9944408518714664</v>
+        <v>0.9952369141397628</v>
       </c>
       <c r="F23">
-        <v>1.017455582161242</v>
+        <v>1.017872542652369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045749675163627</v>
+        <v>1.04597600914194</v>
       </c>
       <c r="J23">
-        <v>1.015027860014165</v>
+        <v>1.015856893875384</v>
       </c>
       <c r="K23">
-        <v>1.029126078639316</v>
+        <v>1.02956554331528</v>
       </c>
       <c r="L23">
-        <v>1.009807861026688</v>
+        <v>1.010588308295411</v>
       </c>
       <c r="M23">
-        <v>1.032384000949004</v>
+        <v>1.032793253871273</v>
       </c>
       <c r="N23">
-        <v>1.016469316000708</v>
+        <v>1.019673540319037</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034202127063627</v>
+        <v>1.034526026100369</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031723958968085</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032049316621695</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020402629881125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9906742040945089</v>
+        <v>0.9904881050431563</v>
       </c>
       <c r="D24">
-        <v>1.018405434683616</v>
+        <v>1.018025513748345</v>
       </c>
       <c r="E24">
-        <v>0.9994208879484465</v>
+        <v>0.9992818714224527</v>
       </c>
       <c r="F24">
-        <v>1.021884160953961</v>
+        <v>1.021621902466449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047283759454223</v>
+        <v>1.047091463420595</v>
       </c>
       <c r="J24">
-        <v>1.018536029967534</v>
+        <v>1.018357288890899</v>
       </c>
       <c r="K24">
-        <v>1.032116860089576</v>
+        <v>1.031743306820537</v>
       </c>
       <c r="L24">
-        <v>1.013458181081496</v>
+        <v>1.01332160995084</v>
       </c>
       <c r="M24">
-        <v>1.035537564649857</v>
+        <v>1.035279662639697</v>
       </c>
       <c r="N24">
-        <v>1.019982467957804</v>
+        <v>1.02009820022832</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.0366979789441</v>
+        <v>1.036493865681431</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033831071484227</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03358082377009</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020828794634815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9978586274723206</v>
+        <v>0.9969468742197418</v>
       </c>
       <c r="D25">
-        <v>1.023199788645637</v>
+        <v>1.022194744593921</v>
       </c>
       <c r="E25">
-        <v>1.005029675109206</v>
+        <v>1.004259343226823</v>
       </c>
       <c r="F25">
-        <v>1.026877305544123</v>
+        <v>1.026116928019288</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048942395458114</v>
+        <v>1.048432822610263</v>
       </c>
       <c r="J25">
-        <v>1.022458272875318</v>
+        <v>1.021577426911635</v>
       </c>
       <c r="K25">
-        <v>1.03544832477266</v>
+        <v>1.03445801587275</v>
       </c>
       <c r="L25">
-        <v>1.017550410405641</v>
+        <v>1.016791896264766</v>
       </c>
       <c r="M25">
-        <v>1.039072236592709</v>
+        <v>1.03832290270155</v>
       </c>
       <c r="N25">
-        <v>1.023910280900404</v>
+        <v>1.021807456869944</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039495444166942</v>
+        <v>1.038902395560401</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036183727536716</v>
+        <v>1.035497088701737</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021386748197392</v>
       </c>
     </row>
   </sheetData>
